--- a/Hypothese Tests.xlsx
+++ b/Hypothese Tests.xlsx
@@ -165,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -180,6 +180,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -190,6 +191,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -474,8 +476,8 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,7 +664,9 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -741,7 +745,7 @@
         <v>0.29565981593342744</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="H7" s="8">
         <v>4.3950310555547972E-6</v>
       </c>
       <c r="I7" s="5"/>
@@ -784,7 +788,7 @@
         <v>0.41082851952096244</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1">
+      <c r="H8" s="8">
         <v>1.0372490365910829E-3</v>
       </c>
       <c r="I8" s="5"/>
@@ -810,7 +814,9 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -958,6 +964,9 @@
       </c>
     </row>
     <row r="13" spans="1:19">
+      <c r="A13">
+        <v>3</v>
+      </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:19">
@@ -1029,7 +1038,7 @@
       <c r="B16" s="10">
         <v>1.0050523331611281E-7</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>1.6133757552684467E-6</v>
       </c>
       <c r="D16" s="1"/>
@@ -1050,7 +1059,7 @@
       <c r="K16" s="8">
         <v>1.0050523331611281E-7</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="10">
         <v>1.6133757552684467E-6</v>
       </c>
       <c r="M16" s="3"/>
@@ -1072,7 +1081,7 @@
       <c r="B17" s="10">
         <v>5.100041930413341E-7</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>1.2469805877405019E-6</v>
       </c>
       <c r="D17" s="1"/>
@@ -1093,7 +1102,7 @@
       <c r="K17" s="8">
         <v>5.100041930413341E-7</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="10">
         <v>1.2469805877405019E-6</v>
       </c>
       <c r="M17" s="3"/>
@@ -1109,6 +1118,9 @@
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="9">
+        <v>4</v>
+      </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:17">
@@ -1260,6 +1272,9 @@
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="9">
+        <v>5</v>
+      </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:17">
@@ -1411,6 +1426,9 @@
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="9">
+        <v>6</v>
+      </c>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:17">
@@ -1562,7 +1580,9 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1710,7 +1730,9 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>8</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1858,6 +1880,9 @@
       </c>
     </row>
     <row r="41" spans="1:17">
+      <c r="A41" s="14">
+        <v>9</v>
+      </c>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:17">
@@ -1880,136 +1905,139 @@
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="15">
+      <c r="A43" s="16">
         <v>9.9923085501675663E-8</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="17">
         <v>7.6939456917722437E-8</v>
       </c>
-      <c r="C43" s="15" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="16">
+      <c r="C43" s="16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="17">
         <v>9.2444637330586943E-35</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="16">
         <v>0.18695048315002952</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18" t="s">
+      <c r="G43" s="18"/>
+      <c r="H43" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20">
+      <c r="I43" s="20"/>
+      <c r="J43" s="21">
         <v>9.9923085501675663E-8</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="17">
         <v>7.6939456917722437E-8</v>
       </c>
-      <c r="L43" s="20" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="17"/>
-      <c r="N43" s="16">
+      <c r="L43" s="21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="18"/>
+      <c r="N43" s="17">
         <v>9.2444637330586943E-35</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O43" s="22">
         <v>0.18695048315002952</v>
       </c>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="18" t="s">
+      <c r="P43" s="18"/>
+      <c r="Q43" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="15">
+      <c r="A44" s="16">
         <v>1.1049124730322824E-10</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="17">
         <v>1.605022331407342E-11</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="16">
         <v>6.3206065070236388E-11</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="16">
+      <c r="D44" s="18"/>
+      <c r="E44" s="17">
         <v>1.0465305734781544E-3</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="16">
         <v>3.4506877710087356E-3</v>
       </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18" t="s">
+      <c r="G44" s="18"/>
+      <c r="H44" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20">
+      <c r="I44" s="20"/>
+      <c r="J44" s="21">
         <v>1.1049124730322824E-10</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="17">
         <v>1.605022331407342E-11</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="21">
         <v>6.3206065070236388E-11</v>
       </c>
-      <c r="M44" s="17"/>
-      <c r="N44" s="16">
+      <c r="M44" s="18"/>
+      <c r="N44" s="17">
         <v>1.0465305734781544E-3</v>
       </c>
-      <c r="O44" s="20">
+      <c r="O44" s="21">
         <v>3.4506877710087356E-3</v>
       </c>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="18" t="s">
+      <c r="P44" s="18"/>
+      <c r="Q44" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="15">
+      <c r="A45" s="16">
         <v>2.217885854095688E-4</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="17">
         <v>2.2120297189081516E-4</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="16">
         <v>2.2138747384499747E-4</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="16">
+      <c r="D45" s="18"/>
+      <c r="E45" s="17">
         <v>7.5347780705352847E-6</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="16">
         <v>2.2545719709019732E-5</v>
       </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18" t="s">
+      <c r="G45" s="18"/>
+      <c r="H45" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20">
+      <c r="I45" s="20"/>
+      <c r="J45" s="21">
         <v>2.217885854095688E-4</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="17">
         <v>2.2120297189081516E-4</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="21">
         <v>2.2138747384499747E-4</v>
       </c>
-      <c r="M45" s="17"/>
-      <c r="N45" s="16">
+      <c r="M45" s="18"/>
+      <c r="N45" s="17">
         <v>7.5347780705352847E-6</v>
       </c>
-      <c r="O45" s="20">
+      <c r="O45" s="21">
         <v>2.2545719709019732E-5</v>
       </c>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="18" t="s">
+      <c r="P45" s="18"/>
+      <c r="Q45" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="H46" s="14"/>
+      <c r="A46" s="25">
+        <v>10</v>
+      </c>
+      <c r="H46" s="15"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:17">
@@ -2118,7 +2146,7 @@
       </c>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="23">
+      <c r="A50" s="24">
         <v>0.18695048315002952</v>
       </c>
       <c r="B50" s="8" t="e">
@@ -2161,6 +2189,9 @@
       </c>
     </row>
     <row r="51" spans="1:17">
+      <c r="A51">
+        <v>11</v>
+      </c>
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:17">
@@ -2312,8 +2343,11 @@
       </c>
     </row>
     <row r="56" spans="1:17">
+      <c r="A56">
+        <v>12</v>
+      </c>
       <c r="I56" s="5"/>
-      <c r="O56" s="22"/>
+      <c r="O56" s="23"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1"/>
@@ -2464,6 +2498,9 @@
       </c>
     </row>
     <row r="61" spans="1:17">
+      <c r="A61" s="9">
+        <v>13</v>
+      </c>
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:17">

--- a/Hypothese Tests.xlsx
+++ b/Hypothese Tests.xlsx
@@ -165,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -180,7 +180,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -191,7 +190,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -476,8 +474,8 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59:E60"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,9 +662,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -745,7 +741,7 @@
         <v>0.29565981593342744</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="8">
+      <c r="H7" s="1">
         <v>4.3950310555547972E-6</v>
       </c>
       <c r="I7" s="5"/>
@@ -788,7 +784,7 @@
         <v>0.41082851952096244</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="8">
+      <c r="H8" s="1">
         <v>1.0372490365910829E-3</v>
       </c>
       <c r="I8" s="5"/>
@@ -814,9 +810,7 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -964,9 +958,6 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13">
-        <v>3</v>
-      </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:19">
@@ -1038,7 +1029,7 @@
       <c r="B16" s="10">
         <v>1.0050523331611281E-7</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="10">
         <v>1.6133757552684467E-6</v>
       </c>
       <c r="D16" s="1"/>
@@ -1059,7 +1050,7 @@
       <c r="K16" s="8">
         <v>1.0050523331611281E-7</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="8">
         <v>1.6133757552684467E-6</v>
       </c>
       <c r="M16" s="3"/>
@@ -1081,7 +1072,7 @@
       <c r="B17" s="10">
         <v>5.100041930413341E-7</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="10">
         <v>1.2469805877405019E-6</v>
       </c>
       <c r="D17" s="1"/>
@@ -1102,7 +1093,7 @@
       <c r="K17" s="8">
         <v>5.100041930413341E-7</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="8">
         <v>1.2469805877405019E-6</v>
       </c>
       <c r="M17" s="3"/>
@@ -1118,9 +1109,6 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="9">
-        <v>4</v>
-      </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:17">
@@ -1272,9 +1260,6 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="9">
-        <v>5</v>
-      </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:17">
@@ -1426,9 +1411,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="9">
-        <v>6</v>
-      </c>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:17">
@@ -1580,9 +1562,7 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="1">
-        <v>7</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1730,9 +1710,7 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="1">
-        <v>8</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1880,9 +1858,6 @@
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="14">
-        <v>9</v>
-      </c>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:17">
@@ -1905,139 +1880,136 @@
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>9.9923085501675663E-8</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="16">
         <v>7.6939456917722437E-8</v>
       </c>
-      <c r="C43" s="16" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="17">
+      <c r="C43" s="15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="16">
         <v>9.2444637330586943E-35</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="15">
         <v>0.18695048315002952</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19" t="s">
+      <c r="G43" s="17"/>
+      <c r="H43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21">
+      <c r="I43" s="19"/>
+      <c r="J43" s="20">
         <v>9.9923085501675663E-8</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="16">
         <v>7.6939456917722437E-8</v>
       </c>
-      <c r="L43" s="21" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="18"/>
-      <c r="N43" s="17">
+      <c r="L43" s="20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="17"/>
+      <c r="N43" s="16">
         <v>9.2444637330586943E-35</v>
       </c>
-      <c r="O43" s="22">
+      <c r="O43" s="21">
         <v>0.18695048315002952</v>
       </c>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="19" t="s">
+      <c r="P43" s="17"/>
+      <c r="Q43" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>1.1049124730322824E-10</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>1.605022331407342E-11</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="15">
         <v>6.3206065070236388E-11</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="17">
+      <c r="D44" s="17"/>
+      <c r="E44" s="16">
         <v>1.0465305734781544E-3</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="15">
         <v>3.4506877710087356E-3</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19" t="s">
+      <c r="G44" s="17"/>
+      <c r="H44" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="21">
+      <c r="I44" s="19"/>
+      <c r="J44" s="20">
         <v>1.1049124730322824E-10</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="16">
         <v>1.605022331407342E-11</v>
       </c>
-      <c r="L44" s="21">
+      <c r="L44" s="20">
         <v>6.3206065070236388E-11</v>
       </c>
-      <c r="M44" s="18"/>
-      <c r="N44" s="17">
+      <c r="M44" s="17"/>
+      <c r="N44" s="16">
         <v>1.0465305734781544E-3</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44" s="20">
         <v>3.4506877710087356E-3</v>
       </c>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="19" t="s">
+      <c r="P44" s="17"/>
+      <c r="Q44" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>2.217885854095688E-4</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>2.2120297189081516E-4</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="15">
         <v>2.2138747384499747E-4</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="17">
+      <c r="D45" s="17"/>
+      <c r="E45" s="16">
         <v>7.5347780705352847E-6</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="15">
         <v>2.2545719709019732E-5</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19" t="s">
+      <c r="G45" s="17"/>
+      <c r="H45" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21">
+      <c r="I45" s="19"/>
+      <c r="J45" s="20">
         <v>2.217885854095688E-4</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="16">
         <v>2.2120297189081516E-4</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="20">
         <v>2.2138747384499747E-4</v>
       </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="17">
+      <c r="M45" s="17"/>
+      <c r="N45" s="16">
         <v>7.5347780705352847E-6</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="20">
         <v>2.2545719709019732E-5</v>
       </c>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="19" t="s">
+      <c r="P45" s="17"/>
+      <c r="Q45" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="25">
-        <v>10</v>
-      </c>
-      <c r="H46" s="15"/>
+      <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:17">
@@ -2146,7 +2118,7 @@
       </c>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="24">
+      <c r="A50" s="23">
         <v>0.18695048315002952</v>
       </c>
       <c r="B50" s="8" t="e">
@@ -2189,9 +2161,6 @@
       </c>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51">
-        <v>11</v>
-      </c>
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:17">
@@ -2343,11 +2312,8 @@
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56">
-        <v>12</v>
-      </c>
       <c r="I56" s="5"/>
-      <c r="O56" s="23"/>
+      <c r="O56" s="22"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1"/>
@@ -2498,9 +2464,6 @@
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="9">
-        <v>13</v>
-      </c>
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:17">

--- a/Hypothese Tests.xlsx
+++ b/Hypothese Tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerben\Documents\OMVISWEG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\OMVISWEG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -474,8 +474,8 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
